--- a/resources/export_templates/backend/template1.xlsx
+++ b/resources/export_templates/backend/template1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
@@ -60,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,13 +148,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -245,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -280,7 +279,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,14 +454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="J2:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
@@ -474,75 +472,75 @@
     <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="10:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="J2" s="1" t="s">
+    <row r="2" spans="10:19" ht="26.25">
+      <c r="J2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
-    <row r="5" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="K5" s="3" t="s">
+    <row r="5" spans="10:19">
+      <c r="K5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="K6" s="4">
+    <row r="6" spans="10:19">
+      <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+    <row r="7" spans="10:19">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="K5:Q5"/>
@@ -555,24 +553,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
